--- a/Data_Driven/Resources/Excel_Files/Test_Suite.xlsx
+++ b/Data_Driven/Resources/Excel_Files/Test_Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Module</t>
   </si>
@@ -22,34 +22,19 @@
     <t>Run</t>
   </si>
   <si>
-    <t>Flight_All</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Hotel_All</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Holiday_All</t>
-  </si>
-  <si>
-    <t>Flight_Smoke</t>
-  </si>
-  <si>
-    <t>Flight_Regression</t>
-  </si>
-  <si>
-    <t>Hotel_Smoke</t>
-  </si>
-  <si>
-    <t>Hotel_Regression</t>
-  </si>
-  <si>
-    <t>Regression_All</t>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Holiday</t>
   </si>
 </sst>
 </file>
@@ -422,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,18 +428,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -462,46 +447,6 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
